--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\land\PLANAbPiaSY\MEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\PLANAbPiaSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19140" windowHeight="6840" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19140" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Potential Areas" sheetId="10" r:id="rId2"/>
-    <sheet name="Calculations &amp; Conversions" sheetId="11" r:id="rId3"/>
-    <sheet name="PLANAbPiaSY" sheetId="3" r:id="rId4"/>
+    <sheet name="Aff Ref" sheetId="5" r:id="rId2"/>
+    <sheet name="Set Asides" sheetId="6" r:id="rId3"/>
+    <sheet name="Avoided Def" sheetId="7" r:id="rId4"/>
+    <sheet name="Impr Forest Mgmt" sheetId="9" r:id="rId5"/>
+    <sheet name="PLANAbPiaSY" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="acres_per_million_hectares">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="177">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -51,89 +53,522 @@
     <t>forest restoration</t>
   </si>
   <si>
+    <t>Acres Available Afforestation and Reforestation</t>
+  </si>
+  <si>
+    <t>Low Estimate</t>
+  </si>
+  <si>
+    <t>million acres</t>
+  </si>
+  <si>
+    <t>High Estimate</t>
+  </si>
+  <si>
+    <t>Gorte estimates the fraction of the 1.8 billion acres of undeveloped</t>
+  </si>
+  <si>
+    <t>land that could sustain a forest.  (It does not matter if it is reforestation</t>
+  </si>
+  <si>
+    <t>or afforestation- we are looking at the total land area that is not now</t>
+  </si>
+  <si>
+    <t>forest but could become forest.)  We take the average of Gorte's</t>
+  </si>
+  <si>
+    <t>low-end and high-end estimates.</t>
+  </si>
+  <si>
+    <t>Acres Available</t>
+  </si>
+  <si>
     <t>acres</t>
   </si>
   <si>
+    <t>Acres Available Annually for Conversion</t>
+  </si>
+  <si>
+    <t>This depends on the speed with which it would be possible to conduct</t>
+  </si>
+  <si>
+    <t>tree planting operations on the available acres.  In practice, this may depend</t>
+  </si>
+  <si>
+    <t>as much on financial and legal hurdles as on technical challenges, such as</t>
+  </si>
+  <si>
+    <t>workforce or tree availability.  Lacking good data on this topic,</t>
+  </si>
+  <si>
+    <t>years needed to afforest/reforest all available acreage</t>
+  </si>
+  <si>
+    <t>acres able to be afforested or reforested per year</t>
+  </si>
+  <si>
+    <t>Acres Available for Afforestation and Reforestation</t>
+  </si>
+  <si>
+    <t>Ross W. Gorte, Congressional Research Service</t>
+  </si>
+  <si>
+    <t>U.S. Tree Planting for Carbon Sequestration</t>
+  </si>
+  <si>
     <t>https://www.fas.org/sgp/crs/misc/R40562.pdf</t>
   </si>
   <si>
+    <t>Page 2, Paragraph 2</t>
+  </si>
+  <si>
+    <t>The contiguous 48 U.S. states have a total land area of roughly</t>
+  </si>
+  <si>
+    <t>acres, so this represents converting</t>
+  </si>
+  <si>
+    <t>of the total contiguous 48 states' land area</t>
+  </si>
+  <si>
+    <t>into forest (on top of existing forest lands).</t>
+  </si>
+  <si>
+    <t>and given the very large potential land area that could sustain a forest,</t>
+  </si>
+  <si>
+    <t>it is best to assume a long time horizon, to avoid making the</t>
+  </si>
+  <si>
+    <t>afforestation/reforestion policy lever unrealistically strong.</t>
+  </si>
+  <si>
+    <t>Accordingly, we will assume that if all of the suitable lands could</t>
+  </si>
+  <si>
+    <t>lower 48 states' contiguous land area.</t>
+  </si>
+  <si>
+    <t>fraction of lower 48 states' land area forested per year</t>
+  </si>
+  <si>
+    <t>Annual Acreage Cut</t>
+  </si>
+  <si>
+    <t>thousand acres</t>
+  </si>
+  <si>
+    <t>Clearcut</t>
+  </si>
+  <si>
+    <t>Partial Cut</t>
+  </si>
+  <si>
+    <t>All Owners</t>
+  </si>
+  <si>
+    <t>We assume that a "Partial Cut" results in 50% deforestation on a given acre,</t>
+  </si>
+  <si>
+    <t>so we weight partial cut half as heavily as clearcut when determining the number</t>
+  </si>
+  <si>
+    <t>of acres cut per year.</t>
+  </si>
+  <si>
+    <t>Acres Cut per Year</t>
+  </si>
+  <si>
+    <t>How many of these acres are available annually for set-asides?</t>
+  </si>
+  <si>
+    <t>This depends on the speed with which timber harvesting could be scaled</t>
+  </si>
+  <si>
+    <t>down, given the need to find replacement materials for forest products.</t>
+  </si>
+  <si>
+    <t>It also is likely not desirable to completely cease timber harvesting,</t>
+  </si>
+  <si>
+    <t>as wood is a renewable resource and may be better than fabricating</t>
+  </si>
+  <si>
+    <t>certain replacement materials.  Lacking good data on this,</t>
+  </si>
+  <si>
+    <t>we will assume that timber harvesting could be reduced from its</t>
+  </si>
+  <si>
+    <t>period (2016-2050) is 35 years long, so if the policy were to</t>
+  </si>
+  <si>
+    <t>be implemented in full strength throughout the entire model run,</t>
+  </si>
+  <si>
+    <t>by the end.</t>
+  </si>
+  <si>
+    <t>potential reduction in timber harvesting achievable per year</t>
+  </si>
+  <si>
+    <t>Forestry Industry and Analysis National Program</t>
+  </si>
+  <si>
+    <t>Trend Data</t>
+  </si>
+  <si>
+    <t>http://www.fia.fs.fed.us/slides/major-trends.pdf</t>
+  </si>
+  <si>
+    <t>Slide 5</t>
+  </si>
+  <si>
+    <t>In the United States, forest acerage in each region (North, South, and West)</t>
+  </si>
+  <si>
+    <t>U.S. Forest Service</t>
+  </si>
+  <si>
+    <t>U.S. Forest Resource Facts and Historical Trends</t>
+  </si>
+  <si>
+    <t>http://www.fia.fs.fed.us/library/brochures/docs/2012/ForestFacts_1952-2012_English.pdf</t>
+  </si>
+  <si>
+    <t>Page 8</t>
+  </si>
+  <si>
+    <t>When logging occurs but does not change the land type from forest to non-forest,</t>
+  </si>
+  <si>
+    <t>this does not count as deforestation for purposes of this model.</t>
+  </si>
+  <si>
+    <t>Logging in the United States generally occurs on land that remains forest afterward,</t>
+  </si>
+  <si>
+    <t>and as such, reduction of this timber harvesting is governed by the "Forest Set-Asides"</t>
+  </si>
+  <si>
+    <t>policy lever, not the "Avoid Deforestation" policy lever.</t>
+  </si>
+  <si>
+    <t>Accordingly, we assume zero potential for CO2 abatement from avoiding</t>
+  </si>
+  <si>
+    <t>deforestation in the United States.</t>
+  </si>
+  <si>
+    <t>See the "Set Asides" tab for calculations pertaining to potential</t>
+  </si>
+  <si>
+    <t>reduction in timber harvesting in the United States.</t>
+  </si>
+  <si>
+    <t>Potential Annual Avoided Deforestation</t>
+  </si>
+  <si>
+    <t>U.S. Forest Acreage has been Increasing in All Regions</t>
+  </si>
+  <si>
+    <t>and total acreage have been increasing, not decreasing.  (See U.S. forest service</t>
+  </si>
+  <si>
+    <t>source cited on "About" tab for confirmation.)</t>
+  </si>
+  <si>
+    <t>Total U.S. Forest Acreage</t>
+  </si>
+  <si>
+    <t>Acreage of Forest Eligible for Improved Management Practices</t>
+  </si>
+  <si>
+    <t>Fraction of forest acreage already using best management practices</t>
+  </si>
+  <si>
+    <t>acres eligible for improved management practices</t>
+  </si>
+  <si>
+    <t>Overall Rates of Forestry Best Management Practices</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>In the original source, Iowa is listed as "25-50" and Indiana is listed as "~80".  We take</t>
+  </si>
+  <si>
+    <t>the average of the Iowa range and remove the tilde sign from Indiana so that the numbers</t>
+  </si>
+  <si>
+    <t>in these cells are machine-readable.</t>
+  </si>
+  <si>
+    <t>NASF Norhteastern Region</t>
+  </si>
+  <si>
+    <t>NASF Southern Group</t>
+  </si>
+  <si>
+    <t>NASF Western Council</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Total Forest Acreage and Rate of Use of Best Management Practices</t>
+  </si>
+  <si>
+    <t>National Report on Sustainable Forests 2010</t>
+  </si>
+  <si>
+    <t>http://www.fs.fed.us/research/sustain/docs/national-reports/2010/2010-sustainability-report.pdf</t>
+  </si>
+  <si>
+    <t>Total forest acreage:</t>
+  </si>
+  <si>
+    <t>Page II-16, "What does the indicator show?"</t>
+  </si>
+  <si>
+    <t>Rate of use of best management practices:</t>
+  </si>
+  <si>
+    <t>Table 20-1</t>
+  </si>
+  <si>
+    <t>Unlike afforestation/reforestatin and set-asides, improved forest management has</t>
+  </si>
+  <si>
+    <t>Fraction Achievable Each Year</t>
+  </si>
+  <si>
+    <t>to be maintained every year to keep getting carbon benefits.  Accordingly, each</t>
+  </si>
+  <si>
+    <t>year, any acreage affected by the Improved Forest Management policy is</t>
+  </si>
+  <si>
+    <t>considered to be "newly" affected acreage by that policy this year, for purposes</t>
+  </si>
+  <si>
+    <t>of this variable.</t>
+  </si>
+  <si>
+    <t>We assume that within the model run timeframe, half of the forests not yet under</t>
+  </si>
+  <si>
+    <t>best management practices could be brought under such practices.  Remainder</t>
+  </si>
+  <si>
+    <t>may be too remote, have legal/ownership complications, or other issues.</t>
+  </si>
+  <si>
+    <t>fraction of eligible forest that could be brought under best</t>
+  </si>
+  <si>
+    <t>management practices during model run</t>
+  </si>
+  <si>
+    <t>acres potentially available for forest set-asides per year</t>
+  </si>
+  <si>
+    <t>acres potentially affected by improved forest management per year</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>Avoid deforestion, peatland restoration, and forest restoration policies</t>
   </si>
   <si>
-    <t>Forestry policy</t>
-  </si>
-  <si>
-    <t>Áreas Naturales Protegidas</t>
-  </si>
-  <si>
-    <t>Translation</t>
-  </si>
-  <si>
-    <t>Reforestación</t>
-  </si>
-  <si>
-    <t>Reforestation</t>
-  </si>
-  <si>
-    <t>Set-asides</t>
-  </si>
-  <si>
-    <t>Improved forest mgmt</t>
-  </si>
-  <si>
-    <t>Manejo forestal</t>
-  </si>
-  <si>
-    <t>Sistemas agroforestales</t>
-  </si>
-  <si>
-    <t>1 ha =</t>
-  </si>
-  <si>
-    <t>Conversion factor</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>Potential land areas for carbon capture</t>
-  </si>
-  <si>
-    <t>Cuadro 3.4</t>
-  </si>
-  <si>
-    <t>Instituto Nacional de Ecología y Cambio Climático (INECC)</t>
-  </si>
-  <si>
-    <t>1997 (estimates for 2000,2010,2030)</t>
-  </si>
-  <si>
-    <t>Carbon emissions capture in Mexico</t>
-  </si>
-  <si>
-    <t>are not used in the Mexico version of the model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We considered Natural Protected Areas (ANP, in Spanish) as forest set-asides. </t>
-  </si>
-  <si>
-    <t>Potencial Técnico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potencial Técnico </t>
+    <t>are not used in the U.S. version of the model.</t>
+  </si>
+  <si>
+    <t>be converted to forest, it would require 1 year for each 0.1% of the</t>
+  </si>
+  <si>
+    <t>present scale by 2% of its current level per year.  The model run</t>
+  </si>
+  <si>
+    <t>there would be a total 70% reduction in timber harvesting per year</t>
+  </si>
+  <si>
+    <t>Potential Land Area (acres/year)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +599,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +623,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -193,54 +642,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -248,28 +656,31 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Millares" xfId="2" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -284,74 +695,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251767B0-8578-4B5B-B7BB-8382FD1CE73C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8886825" cy="5753100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -426,23 +771,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -478,23 +806,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -671,265 +982,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="6">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="6">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="6">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B28" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>450</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="8">
+        <f>AVERAGE(B2:B3)*10^6</f>
+        <v>275000000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
+        <v>1996726201.5999999</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="11">
+        <f>A12/A15</f>
+        <v>0.13772544266692113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="12">
+        <f>A16/A31</f>
+        <v>137.72544266692114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="8">
+        <f>A12/A32</f>
+        <v>1996726.2015999998</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3774</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f>B4+(0.5*C4)</f>
+        <v>6814.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f>A11*1000</f>
+        <v>6814500</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="E10" s="8">
-        <v>30</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8">
-        <f>C4*$F$8*1000000</f>
-        <v>14820000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8">
-        <f>C5*$F$8*1000000</f>
-        <v>10374000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8">
-        <f>C6*$F$8*1000000</f>
-        <v>46189000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="8">
-        <f>C7*$F$8*1000000</f>
-        <v>4693000.0000000009</v>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <f>A12*A27</f>
+        <v>136290</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -937,22 +1525,658 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="14">
+        <v>0</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.265625" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="6">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="6">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="6">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="6">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="6">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="6">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="6">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="6">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="6">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="6">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="6">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="6">
+        <v>94</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="6">
+        <v>92</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="6">
+        <v>91.4</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="6">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>751</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="8">
+        <f>A32*10^6</f>
+        <v>751000000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="18">
+        <f>AVERAGE('Impr Forest Mgmt'!$B$9:$B$29,'Impr Forest Mgmt'!$D$9:$D$26,'Impr Forest Mgmt'!$F$9:$F$22)/100</f>
+        <v>0.87514814814814812</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="8">
+        <f>A33*(1-A36)</f>
+        <v>93763740.740740761</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="8"/>
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="8">
+        <f>A37*A50</f>
+        <v>46881870.370370381</v>
+      </c>
+      <c r="B53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.265625" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="B1" s="2">
         <v>2016</v>
       </c>
@@ -1059,552 +2283,587 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="C2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="D2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="E2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="F2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="G2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="H2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="I2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="J2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="K2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="L2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="M2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="N2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="O2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="P2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="Q2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="R2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="S2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="T2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="U2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="V2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="W2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="X2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="Y2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="Z2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="AA2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="AB2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="AC2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="AD2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="AE2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="AF2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="AG2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="AH2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="AI2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-      <c r="AJ2" s="3">
-        <f>'Calculations &amp; Conversions'!$C$12/'Calculations &amp; Conversions'!$E$10</f>
-        <v>494000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="C2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="D2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="E2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="F2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="G2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="H2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="I2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="J2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="K2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="L2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="M2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="N2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="O2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="P2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="Q2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="R2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="S2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="T2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="U2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="V2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="W2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="X2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="Y2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="Z2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="AA2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="AB2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="AC2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="AD2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="AE2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="AF2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="AG2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="AH2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="AI2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+      <c r="AJ2">
+        <f>'Set Asides'!$A29</f>
+        <v>136290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="C3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="D3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="E3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="F3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="G3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="H3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="I3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="J3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="K3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="L3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="M3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="N3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="O3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="P3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="Q3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="R3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="S3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="T3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="U3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="V3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="W3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="X3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="Y3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="Z3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="AA3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="AB3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="AC3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="AD3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="AE3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="AF3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="AG3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="AH3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="AI3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
       </c>
       <c r="AJ3" s="3">
-        <f>'Calculations &amp; Conversions'!$C$13/'Calculations &amp; Conversions'!$E$10</f>
-        <v>345800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+        <f>'Aff Ref'!$A34</f>
+        <v>1996726.2015999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="C4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="D4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="E4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="F4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="G4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="H4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="I4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="J4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="K4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="L4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="M4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="N4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="O4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="P4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="Q4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="R4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="S4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="T4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="U4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="V4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="W4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="X4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="Y4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="Z4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="AA4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="AB4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="AC4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="AD4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="AE4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="AF4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="AG4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="AH4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="AI4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
       </c>
       <c r="AJ4" s="3">
-        <f>('Calculations &amp; Conversions'!$C$14+'Calculations &amp; Conversions'!$C$15)/'Calculations &amp; Conversions'!$E$10</f>
-        <v>1696066.6666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+        <f>'Impr Forest Mgmt'!$A53</f>
+        <v>46881870.370370381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="C5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="D5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="E5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="F5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="G5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="H5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="I5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="J5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="K5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="L5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="M5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="N5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="O5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="P5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="Q5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="R5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="S5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="T5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="U5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="V5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="W5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="X5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="Y5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="Z5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="AA5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="AB5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="AC5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="AD5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="AE5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="AF5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="AG5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="AH5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="AI5" s="3">
+        <f>'Avoided Def'!$A16</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+        <f>'Avoided Def'!$A16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1714,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1823,9 +3082,6 @@
       <c r="AJ7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/land/PLANAbPiaSY/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfranc03/Downloads/Model_ICM&amp;CPL_260824/InputData/land/PLANAbPiaSY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFBD6390-0407-B443-ADE9-0C1CFD6FB9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07A37AD-F8A5-D24B-B93E-C4674BF8A888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="500" windowWidth="23200" windowHeight="14600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="760" windowWidth="29100" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Potential Areas" sheetId="10" r:id="rId2"/>
     <sheet name="Calculations &amp; Conversions" sheetId="11" r:id="rId3"/>
-    <sheet name="PLANAbPiaSY" sheetId="3" r:id="rId4"/>
+    <sheet name="PLANAbPiaSY-old" sheetId="3" r:id="rId4"/>
+    <sheet name="PLANAbPiaSY" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="acres_per_million_hectares">#REF!</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -136,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">Potencial Técnico </t>
+  </si>
+  <si>
+    <t>added a new sheet to include numbers that ICM has from their experts and scenarios.</t>
   </si>
 </sst>
 </file>
@@ -252,7 +256,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -277,6 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -363,9 +368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,9 +408,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,26 +443,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,26 +478,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -750,6 +721,14 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>45531</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -765,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -780,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -956,8 +935,8 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1844,4 +1823,797 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF5EABC-E0FA-8B4E-B5BB-83FECA4E322A}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AJ11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2030</v>
+      </c>
+      <c r="Q1">
+        <v>2031</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3249334</v>
+      </c>
+      <c r="C2">
+        <v>3249334</v>
+      </c>
+      <c r="D2">
+        <v>3249334</v>
+      </c>
+      <c r="E2">
+        <v>3249334</v>
+      </c>
+      <c r="F2">
+        <v>3249334</v>
+      </c>
+      <c r="G2">
+        <v>3249334</v>
+      </c>
+      <c r="H2">
+        <v>3249334</v>
+      </c>
+      <c r="I2">
+        <v>3249334</v>
+      </c>
+      <c r="J2">
+        <v>3249334</v>
+      </c>
+      <c r="K2">
+        <v>3249334</v>
+      </c>
+      <c r="L2">
+        <v>3249334</v>
+      </c>
+      <c r="M2">
+        <v>3249334</v>
+      </c>
+      <c r="N2">
+        <v>3249334</v>
+      </c>
+      <c r="O2">
+        <v>3249334</v>
+      </c>
+      <c r="P2">
+        <v>3249334</v>
+      </c>
+      <c r="Q2">
+        <v>3249334</v>
+      </c>
+      <c r="R2">
+        <v>3249334</v>
+      </c>
+      <c r="S2">
+        <v>3249334</v>
+      </c>
+      <c r="T2">
+        <v>3249334</v>
+      </c>
+      <c r="U2">
+        <v>3249334</v>
+      </c>
+      <c r="V2">
+        <v>3249334</v>
+      </c>
+      <c r="W2">
+        <v>3249334</v>
+      </c>
+      <c r="X2">
+        <v>3249334</v>
+      </c>
+      <c r="Y2">
+        <v>3249334</v>
+      </c>
+      <c r="Z2">
+        <v>3249334</v>
+      </c>
+      <c r="AA2">
+        <v>3249334</v>
+      </c>
+      <c r="AB2">
+        <v>3249334</v>
+      </c>
+      <c r="AC2">
+        <v>3249334</v>
+      </c>
+      <c r="AD2">
+        <v>3249334</v>
+      </c>
+      <c r="AE2">
+        <v>3249334</v>
+      </c>
+      <c r="AF2">
+        <v>3249334</v>
+      </c>
+      <c r="AG2">
+        <v>3249334</v>
+      </c>
+      <c r="AH2">
+        <v>3249334</v>
+      </c>
+      <c r="AI2">
+        <v>3249334</v>
+      </c>
+      <c r="AJ2">
+        <v>3249334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>869811</v>
+      </c>
+      <c r="C3">
+        <v>869811</v>
+      </c>
+      <c r="D3">
+        <v>869811</v>
+      </c>
+      <c r="E3">
+        <v>869811</v>
+      </c>
+      <c r="F3">
+        <v>869811</v>
+      </c>
+      <c r="G3">
+        <v>869811</v>
+      </c>
+      <c r="H3">
+        <v>869811</v>
+      </c>
+      <c r="I3">
+        <v>869811</v>
+      </c>
+      <c r="J3">
+        <v>869811</v>
+      </c>
+      <c r="K3">
+        <v>869811</v>
+      </c>
+      <c r="L3">
+        <v>869811</v>
+      </c>
+      <c r="M3">
+        <v>869811</v>
+      </c>
+      <c r="N3">
+        <v>869811</v>
+      </c>
+      <c r="O3">
+        <v>869811</v>
+      </c>
+      <c r="P3">
+        <v>869811</v>
+      </c>
+      <c r="Q3">
+        <v>869811</v>
+      </c>
+      <c r="R3">
+        <v>869811</v>
+      </c>
+      <c r="S3">
+        <v>869811</v>
+      </c>
+      <c r="T3">
+        <v>869811</v>
+      </c>
+      <c r="U3">
+        <v>869811</v>
+      </c>
+      <c r="V3">
+        <v>869811</v>
+      </c>
+      <c r="W3">
+        <v>869811</v>
+      </c>
+      <c r="X3">
+        <v>869811</v>
+      </c>
+      <c r="Y3">
+        <v>869811</v>
+      </c>
+      <c r="Z3">
+        <v>869811</v>
+      </c>
+      <c r="AA3">
+        <v>869811</v>
+      </c>
+      <c r="AB3">
+        <v>869811</v>
+      </c>
+      <c r="AC3">
+        <v>869811</v>
+      </c>
+      <c r="AD3">
+        <v>869811</v>
+      </c>
+      <c r="AE3">
+        <v>869811</v>
+      </c>
+      <c r="AF3">
+        <v>869811</v>
+      </c>
+      <c r="AG3">
+        <v>869811</v>
+      </c>
+      <c r="AH3">
+        <v>869811</v>
+      </c>
+      <c r="AI3">
+        <v>869811</v>
+      </c>
+      <c r="AJ3">
+        <v>869811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1696067</v>
+      </c>
+      <c r="C4">
+        <v>1696067</v>
+      </c>
+      <c r="D4">
+        <v>1696067</v>
+      </c>
+      <c r="E4">
+        <v>1696067</v>
+      </c>
+      <c r="F4">
+        <v>1696067</v>
+      </c>
+      <c r="G4">
+        <v>1696067</v>
+      </c>
+      <c r="H4">
+        <v>1696067</v>
+      </c>
+      <c r="I4">
+        <v>1696067</v>
+      </c>
+      <c r="J4">
+        <v>1696067</v>
+      </c>
+      <c r="K4">
+        <v>1696067</v>
+      </c>
+      <c r="L4">
+        <v>1696067</v>
+      </c>
+      <c r="M4">
+        <v>1696067</v>
+      </c>
+      <c r="N4">
+        <v>1696067</v>
+      </c>
+      <c r="O4">
+        <v>1696067</v>
+      </c>
+      <c r="P4">
+        <v>1696067</v>
+      </c>
+      <c r="Q4">
+        <v>1696067</v>
+      </c>
+      <c r="R4">
+        <v>1696067</v>
+      </c>
+      <c r="S4">
+        <v>1696067</v>
+      </c>
+      <c r="T4">
+        <v>1696067</v>
+      </c>
+      <c r="U4">
+        <v>1696067</v>
+      </c>
+      <c r="V4">
+        <v>1696067</v>
+      </c>
+      <c r="W4">
+        <v>1696067</v>
+      </c>
+      <c r="X4">
+        <v>1696067</v>
+      </c>
+      <c r="Y4">
+        <v>1696067</v>
+      </c>
+      <c r="Z4">
+        <v>1696067</v>
+      </c>
+      <c r="AA4">
+        <v>1696067</v>
+      </c>
+      <c r="AB4">
+        <v>1696067</v>
+      </c>
+      <c r="AC4">
+        <v>1696067</v>
+      </c>
+      <c r="AD4">
+        <v>1696067</v>
+      </c>
+      <c r="AE4">
+        <v>1696067</v>
+      </c>
+      <c r="AF4">
+        <v>1696067</v>
+      </c>
+      <c r="AG4">
+        <v>1696067</v>
+      </c>
+      <c r="AH4">
+        <v>1696067</v>
+      </c>
+      <c r="AI4">
+        <v>1696067</v>
+      </c>
+      <c r="AJ4">
+        <v>1696067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>